--- a/数据整理/stocks/港股/03669-永达汽车.xlsx
+++ b/数据整理/stocks/港股/03669-永达汽车.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>001691</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>南方香港成长灵活配置混合QDII</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.72</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.72</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>001691</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>南方香港成长灵活配置混合QDII</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>35.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +910,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.82</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.79</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.82</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.79</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.54</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>8.30</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.88</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03669-永达汽车.xlsx
+++ b/数据整理/stocks/港股/03669-永达汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03669-永达汽车.xlsx
+++ b/数据整理/stocks/港股/03669-永达汽车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03669-永达汽车.xlsx
+++ b/数据整理/stocks/港股/03669-永达汽车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03669-永达汽车.xlsx
+++ b/数据整理/stocks/港股/03669-永达汽车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.58</v>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.27</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.57</v>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03669-永达汽车.xlsx
+++ b/数据整理/stocks/港股/03669-永达汽车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2141,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,17 +2153,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2172,14 +2193,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.95</v>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7162</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2188,14 +2231,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.58</v>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2204,14 +2269,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.27</v>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2220,14 +2307,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.57</v>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2236,13 +2345,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03669-永达汽车.xlsx
+++ b/数据整理/stocks/港股/03669-永达汽车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2464,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,17 +2476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2495,14 +2516,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -2511,14 +2606,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
@@ -2527,14 +2622,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.58</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
@@ -2543,14 +2638,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.27</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="6">
@@ -2559,14 +2654,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2.57</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="7">
@@ -2575,13 +2670,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03669-永达汽车.xlsx
+++ b/数据整理/stocks/港股/03669-永达汽车.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,319 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7292</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001691</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方香港成长灵活配置混合QDII</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2548</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0752</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0629</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0555</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.57</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="n">
+        <v>1.26</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -779,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -830,264 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.43</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.88</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0133</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8882</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4316</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0742</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1162,22 +760,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.74</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8956</t>
+          <t>0.7162</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1200,26 +798,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8323</t>
+          <t>0.1679</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1228,36 +826,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>015119</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>汇添富沪港深大盘价值混合D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3520</t>
+          <t>0.1679</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1266,32 +864,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.37</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0695</t>
+          <t>0.0261</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1304,36 +902,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0649</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,36 +940,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1380,36 +978,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>37.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0265</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1418,6 +1016,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1846,290 +1728,6 @@
       </c>
       <c r="H11" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007139</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6714</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2020</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.46</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2164,7 +1762,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2204,22 +1802,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>16.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7162</t>
+          <t>0.8956</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2242,26 +1840,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1679</t>
+          <t>0.8323</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2270,36 +1868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>015119</t>
+          <t>005197</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合D</t>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1679</t>
+          <t>0.3520</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2308,32 +1906,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>96.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0261</t>
+          <t>0.0695</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2346,36 +1944,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0649</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2384,36 +1982,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2422,36 +2020,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>005198</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>37.77</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2486,7 +2084,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2516,36 +2114,264 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>006205</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2559,144 +2385,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.26</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/03669-永达汽车.xlsx
+++ b/数据整理/stocks/港股/03669-永达汽车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.58</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.27</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2.57</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1728,328 +1915,6 @@
       </c>
       <c r="H11" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007139</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8956</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8323</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3520</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0695</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0649</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0287</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2114,36 +1979,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>007139</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>富国民裕进取沪港深成长精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.43</t>
+          <t>16.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.88</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0133</t>
+          <t>0.8956</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2162,26 +2027,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8882</t>
+          <t>0.8323</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2200,26 +2065,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4316</t>
+          <t>0.3520</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2228,32 +2093,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>96.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0742</t>
+          <t>0.0695</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2266,32 +2131,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0723</t>
+          <t>0.0649</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2304,36 +2169,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0672</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2342,36 +2207,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>005198</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2380,6 +2245,328 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
